--- a/src/main/resources/event.xlsx
+++ b/src/main/resources/event.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.mishra.mishra.000\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3195C922-DE82-4083-9F49-3D446F699044}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{CDD84EB4-CF2A-4E26-B201-14CDDBC0B528}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4920" xr2:uid="{CF0D3A8B-C621-4F26-91D2-E6230D18B476}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="3300" xr2:uid="{CF0D3A8B-C621-4F26-91D2-E6230D18B476}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +48,27 @@
   </si>
   <si>
     <t>Employee Id</t>
+  </si>
+  <si>
+    <t>Chirag</t>
+  </si>
+  <si>
+    <t>Zaid</t>
+  </si>
+  <si>
+    <t>Rupali</t>
+  </si>
+  <si>
+    <t>chirag.v.kumar</t>
+  </si>
+  <si>
+    <t>zaidabid.makani</t>
+  </si>
+  <si>
+    <t>rupali.ambre</t>
+  </si>
+  <si>
+    <t>Pune</t>
   </si>
 </sst>
 </file>
@@ -627,7 +644,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,25 +692,55 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="3">
+        <v>11119095</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="3">
+        <v>11119096</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="3">
+        <v>11119097</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/src/main/resources/event.xlsx
+++ b/src/main/resources/event.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{CDD84EB4-CF2A-4E26-B201-14CDDBC0B528}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{D19CA502-09CA-4FC9-BFC9-A1C480221AFA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="3300" xr2:uid="{CF0D3A8B-C621-4F26-91D2-E6230D18B476}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="5895" xr2:uid="{CF0D3A8B-C621-4F26-91D2-E6230D18B476}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -644,7 +644,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,67 +656,83 @@
     <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>11119094</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>11119094</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>11119095</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>11119095</v>
+        <v>11119096</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>11119096</v>
+        <v>11119097</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>15</v>
@@ -725,36 +741,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>11119097</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>6</v>
-      </c>
+    <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="12"/>
+    <row r="7" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13"/>
+    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
